--- a/horario.xlsx
+++ b/horario.xlsx
@@ -15,6 +15,189 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DAMUGE</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">GRUPO 6:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Damuge Leonardo
+Edmilson Cesar</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAMUGE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Damuge Leonardo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">GRUPO 1:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>custodio
+Damuge
+Helder</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Grupo 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allan
+Alcina
+Damuge
+Dinis
+Esmeralda
+Faizal
+Helder
+Thandy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Materiais Esportivos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Benjamin
+-Damuge
+-Edmilson
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
@@ -91,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +358,58 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -392,6 +627,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,48 +700,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -834,7 +1069,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,22 +1105,22 @@
       </c>
     </row>
     <row r="4" spans="3:9" ht="54" customHeight="1">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -893,31 +1128,31 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="58.5" customHeight="1">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="50.25" customHeight="1">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -925,35 +1160,35 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="54.75" customHeight="1" thickBot="1">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="53.25" customHeight="1">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -961,20 +1196,26 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="56.25" customHeight="1">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="D4:D6"/>
@@ -982,16 +1223,11 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/horario.xlsx
+++ b/horario.xlsx
@@ -630,6 +630,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
@@ -668,39 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1069,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1108,19 +1108,19 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1131,11 +1131,11 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1144,15 +1144,15 @@
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1163,15 +1163,15 @@
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1180,15 +1180,15 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1199,23 +1199,17 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="D4:D6"/>
@@ -1223,6 +1217,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/horario.xlsx
+++ b/horario.xlsx
@@ -76,7 +76,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
--Damuge Leonardo</t>
+-Damuge Leonardo
+-Edmilson Cesar
+-Rosa Macamo</t>
         </r>
       </text>
     </comment>
@@ -630,6 +632,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,45 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1071,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1108,19 +1110,19 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1131,11 +1133,11 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1144,15 +1146,15 @@
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1163,15 +1165,15 @@
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1180,15 +1182,15 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1199,17 +1201,23 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="D4:D6"/>
@@ -1217,12 +1225,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
